--- a/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
+++ b/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ho Jin\Documents\GitHub\MSE312\mechanical\SOLIDWORKS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ho Jin\Documents\GitHub\MSE312\mechanical\Mechanical\SOLIDWORKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759654C-F6ED-4EE9-8B43-79CCBC508439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB802A6E-0666-46A5-B659-C20852E9F6CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5113E8A9-D0E6-4E6B-BEEB-5AB6B2B68602}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -74,9 +74,6 @@
     <t>Output Gear (60 teeth)</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/trinamic-motion-control-gmbh/QBL4208-100-04-025/4843440</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/2664N468/</t>
   </si>
   <si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>1020 8020 Extrusion (10 cm) ($0.36 / cm)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/crouzet/82890001/3190319</t>
+  </si>
+  <si>
+    <t>Motor Controller</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2991</t>
   </si>
 </sst>
 </file>
@@ -184,13 +190,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161221</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>18099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -524,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A48FD-430D-4AC0-948A-E685387787CA}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +560,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -563,7 +569,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D10" si="0">C2*B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2*B2</f>
         <v>8.4600000000000009</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -572,7 +578,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -590,7 +596,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -603,12 +609,12 @@
         <v>64.34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -621,7 +627,7 @@
         <v>26.32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,53 +674,70 @@
         <v>174.61</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>174.61</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>180.98</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9</f>
+        <v>29.95</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>19.329999999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>19.329999999999998</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>38.549999999999997</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>38.549999999999997</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
-        <f>SUM(D2:D10)</f>
-        <v>424.55</v>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <f>SUM(D2:D11)</f>
+        <v>460.86999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
+++ b/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ho Jin\Documents\GitHub\MSE312\mechanical\Mechanical\SOLIDWORKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB802A6E-0666-46A5-B659-C20852E9F6CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9CE28-F8B1-4C89-A6CD-7FE21BF946F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5113E8A9-D0E6-4E6B-BEEB-5AB6B2B68602}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5113E8A9-D0E6-4E6B-BEEB-5AB6B2B68602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -62,15 +62,9 @@
     <t>https://www.mcmaster.com/98870a110/</t>
   </si>
   <si>
-    <t>Catapult Arm</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
-    <t>Input Gear</t>
-  </si>
-  <si>
     <t>Output Gear (60 teeth)</t>
   </si>
   <si>
@@ -101,17 +95,35 @@
     <t>https://www.digikey.ca/en/products/detail/crouzet/82890001/3190319</t>
   </si>
   <si>
-    <t>Motor Controller</t>
-  </si>
-  <si>
-    <t>https://www.pololu.com/product/2991</t>
+    <t>2 inches Aluminum Angle (Motor mount), (1 foot = $7.95)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/angles/multipurpose-6061-aluminum-90-angles-7/</t>
+  </si>
+  <si>
+    <t>Motor H-Bridge</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/VNH7040AYTR/7691019</t>
+  </si>
+  <si>
+    <t>Catapult Arm Rod</t>
+  </si>
+  <si>
+    <t>Catapult Bucket Top/Bottom</t>
+  </si>
+  <si>
+    <t>Catapult Bucket Left/Right</t>
+  </si>
+  <si>
+    <t>Input Gear (16 teeth)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +184,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -189,22 +212,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161221</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>18099</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5628571</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EBB76B-4F16-4514-B6BC-7BD89A8116A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F88276-33FA-4B19-8226-12A1FC2E8B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -220,8 +243,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12372975" y="2124075"/>
-          <a:ext cx="5628571" cy="7609524"/>
+          <a:off x="11896725" y="2667000"/>
+          <a:ext cx="5628571" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5361906</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>141946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BFA6D4-4977-4FBB-AA4A-4F3E19C5AFF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="10239375"/>
+          <a:ext cx="5352381" cy="7428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5409525</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>27648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D60B5AC-4081-40E2-9343-457B963FCD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="17754600"/>
+          <a:ext cx="5400000" cy="7419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -530,15 +641,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A48FD-430D-4AC0-948A-E685387787CA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="40.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="85" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,7 +673,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -569,7 +682,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D11" si="0">C2*B2</f>
+        <f t="shared" ref="D2:D15" si="0">C2*B2</f>
         <v>8.4600000000000009</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -578,7 +691,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -596,7 +709,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -609,12 +722,12 @@
         <v>64.34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -627,7 +740,7 @@
         <v>26.32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,94 +763,154 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>89</v>
+        <f>2/12*7.95</f>
+        <v>1.325</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>1.325</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>174.61</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>180.98</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
+        <f t="shared" ref="D8:D11" si="1">C8*B8</f>
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>29.95</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="D9" s="1">
-        <f>C9</f>
-        <v>29.95</v>
+        <f t="shared" si="1"/>
+        <v>38.549999999999997</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>19.329999999999998</v>
+        <v>133.03</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>19.329999999999998</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>133.03</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>38.549999999999997</v>
+        <v>6.15</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>38.549999999999997</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
-        <f>SUM(D2:D11)</f>
-        <v>460.86999999999995</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM(D2:D15)</f>
+        <v>398.44499999999994</v>
       </c>
     </row>
   </sheetData>
@@ -745,6 +918,7 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3FC7A95C-25B3-4ACF-B044-DB1D1CDC5BF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
+++ b/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ho Jin\Documents\GitHub\MSE312\mechanical\Mechanical\SOLIDWORKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9CE28-F8B1-4C89-A6CD-7FE21BF946F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088D00A-16D1-4DBA-A49B-5521A442A44F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5113E8A9-D0E6-4E6B-BEEB-5AB6B2B68602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5113E8A9-D0E6-4E6B-BEEB-5AB6B2B68602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>Input Gear (16 teeth)</t>
+  </si>
+  <si>
+    <t>1 in T-slot Framing Corner Bracket</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/47065T236/</t>
+  </si>
+  <si>
+    <t>1/4"-20 Button Head Bolt</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92949A539/</t>
+  </si>
+  <si>
+    <t>M4 Button Head Bolt</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92095A189/</t>
+  </si>
+  <si>
+    <t>M8 Button Head Bolt</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92095A129/</t>
   </si>
 </sst>
 </file>
@@ -213,13 +237,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5628571</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>56214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -257,13 +281,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5361906</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>141946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -301,13 +325,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5409525</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>27648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -641,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A48FD-430D-4AC0-948A-E685387787CA}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +706,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D15" si="0">C2*B2</f>
+        <f t="shared" ref="D2:D19" si="0">C2*B2</f>
         <v>8.4600000000000009</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -709,216 +733,289 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>32.17</v>
+        <v>5.63</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>64.34</v>
+        <v>33.78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>26.32</v>
+        <v>6.39</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>26.32</v>
+        <v>6.39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0.34</v>
+        <v>8.89</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>8.89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.42</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.17</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>64.34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26.32</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>26.32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <f>2/12*7.95</f>
         <v>1.325</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>1.325</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>19.329999999999998</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:D11" si="1">C8*B8</f>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:D15" si="1">C12*B12</f>
         <v>19.329999999999998</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>38.549999999999997</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>38.549999999999997</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>133.03</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>133.03</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
         <v>6.15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>6.15</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <f>SUM(D2:D15)</f>
-        <v>398.44499999999994</v>
+      <c r="C18" s="1">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM(D2:D19)</f>
+        <v>456.92499999999995</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3FC7A95C-25B3-4ACF-B044-DB1D1CDC5BF9}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{5B3EAAE6-32AD-4A1A-A738-1FC936759B96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
+++ b/mechanical/Mechanical/SOLIDWORKS/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ho Jin\Documents\GitHub\MSE312\mechanical\Mechanical\SOLIDWORKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088D00A-16D1-4DBA-A49B-5521A442A44F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AED3D-3C0A-4A98-AEE8-031437FFD2AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5113E8A9-D0E6-4E6B-BEEB-5AB6B2B68602}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <f t="shared" si="0"/>
         <v>6.39</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <f t="shared" si="0"/>
         <v>8.89</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <f t="shared" si="0"/>
         <v>26.32</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1013,9 +1013,15 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3FC7A95C-25B3-4ACF-B044-DB1D1CDC5BF9}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{5B3EAAE6-32AD-4A1A-A738-1FC936759B96}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{1E4ADBF9-EE1B-433D-8BDD-3540A7DEFDC9}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{E7B3B70A-C5AF-4AC3-8B5F-1EB3CA10DBE2}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{38CC17DC-E7FC-4879-9DAC-1A556A5DB7DB}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{C540888C-D53B-4C07-9214-91D3493043A3}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{BCFF9DEE-9A95-465D-BD11-B4CCA9567EBD}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{108D6033-ADC8-4ED4-B8C1-DBEE5D23666A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>